--- a/src/_static/xlsx/tab_elenco_errori_anpr.xlsx
+++ b/src/_static/xlsx/tab_elenco_errori_anpr.xlsx
@@ -10,14 +10,14 @@
     <sheet name="errori_anpr" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">errori_anpr!$A$2:$G$754</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">errori_anpr!$A$2:$G$756</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="1541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="1545">
   <si>
     <t>EN351</t>
   </si>
@@ -1361,9 +1361,6 @@
   </si>
   <si>
     <t>EA048</t>
-  </si>
-  <si>
-    <t>Codice fiscale formalmente errato</t>
   </si>
   <si>
     <t>EC164</t>
@@ -4674,6 +4671,21 @@
   </si>
   <si>
     <t>Nel servizio 5001 il tipoMutazione = 1 (Tutore/Responsabile Convivenza) non e' ammesso per famiglia AIRE</t>
+  </si>
+  <si>
+    <t>Residenza non congruente con Agenzia delle Entrate</t>
+  </si>
+  <si>
+    <t>EN394</t>
+  </si>
+  <si>
+    <t>Per il tipo revoca @ e' obbligatorio specificare il set di dati @</t>
+  </si>
+  <si>
+    <t>EN403</t>
+  </si>
+  <si>
+    <t>L’operazione richiesta all’Agenzia delle Entrate contiene dati errati o insufficienti @</t>
   </si>
 </sst>
 </file>
@@ -5259,7 +5271,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5282,6 +5294,9 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5642,10 +5657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H755"/>
+  <dimension ref="A1:H757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A646" workbookViewId="0">
-      <selection activeCell="C654" sqref="C654"/>
+    <sheetView tabSelected="1" topLeftCell="A654" workbookViewId="0">
+      <selection activeCell="C659" sqref="C659"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5661,51 +5676,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>1483</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>1484</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="17" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="13" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="12" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>1487</v>
-      </c>
       <c r="F2" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>1486</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>1487</v>
-      </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1085</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1086</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -5716,66 +5731,66 @@
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>1096</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1097</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>562</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>563</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>1098</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1099</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>1100</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>1101</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>1102</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1103</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -5786,10 +5801,10 @@
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>1104</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>1105</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
@@ -5797,10 +5812,10 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>1087</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>1088</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
@@ -5811,10 +5826,10 @@
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>1106</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>1107</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
@@ -5822,10 +5837,10 @@
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>1092</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>1093</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -5836,58 +5851,58 @@
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>1108</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1109</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>1110</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>1111</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>967</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>968</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>1115</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>1116</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5895,13 +5910,16 @@
         <v>444</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>445</v>
+        <v>1540</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
+      </c>
+      <c r="H17" s="12">
+        <v>42928</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5915,7 +5933,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5929,7 +5947,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5943,7 +5961,7 @@
         <v>11</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5957,7 +5975,7 @@
         <v>11</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5971,7 +5989,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5985,18 +6003,18 @@
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="24" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -6012,13 +6030,13 @@
     </row>
     <row r="25" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>11</v>
@@ -6034,13 +6052,13 @@
     </row>
     <row r="26" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>11</v>
@@ -6056,13 +6074,13 @@
     </row>
     <row r="27" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -6078,13 +6096,13 @@
     </row>
     <row r="28" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>11</v>
@@ -6100,13 +6118,13 @@
     </row>
     <row r="29" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
@@ -6122,10 +6140,10 @@
     </row>
     <row r="30" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>25</v>
@@ -6142,10 +6160,10 @@
     </row>
     <row r="31" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -6158,10 +6176,10 @@
     </row>
     <row r="32" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>25</v>
@@ -6176,10 +6194,10 @@
     </row>
     <row r="33" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -6192,10 +6210,10 @@
     </row>
     <row r="34" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -6208,10 +6226,10 @@
     </row>
     <row r="35" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6224,10 +6242,10 @@
     </row>
     <row r="36" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -6240,10 +6258,10 @@
     </row>
     <row r="37" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -6256,10 +6274,10 @@
     </row>
     <row r="38" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>841</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -6272,10 +6290,10 @@
     </row>
     <row r="39" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -6288,10 +6306,10 @@
     </row>
     <row r="40" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>915</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>916</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -6304,10 +6322,10 @@
     </row>
     <row r="41" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>918</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -6320,10 +6338,10 @@
     </row>
     <row r="42" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -6336,13 +6354,13 @@
     </row>
     <row r="43" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -6354,13 +6372,13 @@
     </row>
     <row r="44" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>1091</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -6372,13 +6390,13 @@
     </row>
     <row r="45" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>1095</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -6390,10 +6408,10 @@
     </row>
     <row r="46" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>30</v>
@@ -6410,10 +6428,10 @@
     </row>
     <row r="47" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>30</v>
@@ -6428,13 +6446,13 @@
     </row>
     <row r="48" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>929</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>11</v>
@@ -6450,13 +6468,13 @@
     </row>
     <row r="49" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -6468,13 +6486,13 @@
     </row>
     <row r="50" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>1277</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -6486,10 +6504,10 @@
     </row>
     <row r="51" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>1050</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>30</v>
@@ -6506,10 +6524,10 @@
     </row>
     <row r="52" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>1051</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1052</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>30</v>
@@ -6524,10 +6542,10 @@
     </row>
     <row r="53" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>30</v>
@@ -6542,10 +6560,10 @@
     </row>
     <row r="54" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>30</v>
@@ -6560,10 +6578,10 @@
     </row>
     <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
@@ -6578,10 +6596,10 @@
     </row>
     <row r="56" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>1456</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1457</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -6594,10 +6612,10 @@
     </row>
     <row r="57" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>25</v>
@@ -6612,10 +6630,10 @@
     </row>
     <row r="58" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>931</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>30</v>
@@ -6630,10 +6648,10 @@
     </row>
     <row r="59" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>30</v>
@@ -6648,10 +6666,10 @@
     </row>
     <row r="60" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6664,10 +6682,10 @@
     </row>
     <row r="61" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6680,10 +6698,10 @@
     </row>
     <row r="62" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>25</v>
@@ -6698,10 +6716,10 @@
     </row>
     <row r="63" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>30</v>
@@ -6718,10 +6736,10 @@
     </row>
     <row r="64" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>849</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>30</v>
@@ -6736,10 +6754,10 @@
     </row>
     <row r="65" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>950</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>951</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>25</v>
@@ -6754,10 +6772,10 @@
     </row>
     <row r="66" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -6770,10 +6788,10 @@
     </row>
     <row r="67" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>25</v>
@@ -6788,10 +6806,10 @@
     </row>
     <row r="68" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -6804,13 +6822,13 @@
     </row>
     <row r="69" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -6826,13 +6844,13 @@
     </row>
     <row r="70" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>908</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>11</v>
@@ -6848,13 +6866,13 @@
     </row>
     <row r="71" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>953</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>954</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>11</v>
@@ -6870,13 +6888,13 @@
     </row>
     <row r="72" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -6892,13 +6910,13 @@
     </row>
     <row r="73" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>11</v>
@@ -6912,13 +6930,13 @@
     </row>
     <row r="74" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>923</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>924</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>11</v>
@@ -6932,13 +6950,13 @@
     </row>
     <row r="75" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>927</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>11</v>
@@ -6952,35 +6970,33 @@
     </row>
     <row r="76" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="H76" s="10">
+        <v>42928</v>
+      </c>
     </row>
     <row r="77" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -6992,13 +7008,13 @@
     </row>
     <row r="78" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -7010,10 +7026,10 @@
     </row>
     <row r="79" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>25</v>
@@ -7030,7 +7046,7 @@
     </row>
     <row r="80" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>22</v>
@@ -7046,10 +7062,10 @@
     </row>
     <row r="81" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>25</v>
@@ -7064,10 +7080,10 @@
     </row>
     <row r="82" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>1462</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1463</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>25</v>
@@ -7084,10 +7100,10 @@
     </row>
     <row r="83" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>1460</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1461</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -7100,10 +7116,10 @@
     </row>
     <row r="84" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>1458</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1459</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>25</v>
@@ -7118,10 +7134,10 @@
     </row>
     <row r="85" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
@@ -7136,10 +7152,10 @@
     </row>
     <row r="86" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -7152,10 +7168,10 @@
     </row>
     <row r="87" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>25</v>
@@ -7170,10 +7186,10 @@
     </row>
     <row r="88" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>822</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -7186,10 +7202,10 @@
     </row>
     <row r="89" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -7220,10 +7236,10 @@
     </row>
     <row r="91" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>25</v>
@@ -7240,10 +7256,10 @@
     </row>
     <row r="92" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7256,10 +7272,10 @@
     </row>
     <row r="93" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>25</v>
@@ -7274,10 +7290,10 @@
     </row>
     <row r="94" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>25</v>
@@ -7292,10 +7308,10 @@
     </row>
     <row r="95" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>25</v>
@@ -7310,10 +7326,10 @@
     </row>
     <row r="96" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>25</v>
@@ -7328,10 +7344,10 @@
     </row>
     <row r="97" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>25</v>
@@ -7346,13 +7362,13 @@
     </row>
     <row r="98" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>1361</v>
-      </c>
       <c r="C98" s="9" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>11</v>
@@ -7368,10 +7384,10 @@
     </row>
     <row r="99" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>1362</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1363</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7384,10 +7400,10 @@
     </row>
     <row r="100" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>1364</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>1365</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>25</v>
@@ -7402,13 +7418,13 @@
     </row>
     <row r="101" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -7420,13 +7436,13 @@
     </row>
     <row r="102" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>766</v>
-      </c>
       <c r="C102" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -8520,10 +8536,10 @@
     </row>
     <row r="166" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
@@ -8536,13 +8552,13 @@
     </row>
     <row r="167" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>11</v>
@@ -8564,7 +8580,7 @@
         <v>20</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>11</v>
@@ -8756,13 +8772,13 @@
     </row>
     <row r="179" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B179" t="s">
         <v>1498</v>
       </c>
-      <c r="B179" t="s">
-        <v>1499</v>
-      </c>
       <c r="C179" s="8" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
@@ -8776,10 +8792,10 @@
     </row>
     <row r="180" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>893</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>894</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -8792,10 +8808,10 @@
     </row>
     <row r="181" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>895</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>896</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -8808,10 +8824,10 @@
     </row>
     <row r="182" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
@@ -8826,10 +8842,10 @@
     </row>
     <row r="183" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
@@ -8842,10 +8858,10 @@
     </row>
     <row r="184" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>889</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>890</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -8858,10 +8874,10 @@
     </row>
     <row r="185" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>1164</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>1165</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -8874,10 +8890,10 @@
     </row>
     <row r="186" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>891</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>892</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
@@ -8894,10 +8910,10 @@
     </row>
     <row r="187" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
@@ -8910,10 +8926,10 @@
     </row>
     <row r="188" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>1422</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>1423</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -8926,10 +8942,10 @@
     </row>
     <row r="189" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -8942,10 +8958,10 @@
     </row>
     <row r="190" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -8958,10 +8974,10 @@
     </row>
     <row r="191" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -8974,10 +8990,10 @@
     </row>
     <row r="192" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -8990,10 +9006,10 @@
     </row>
     <row r="193" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>686</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>687</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -9006,10 +9022,10 @@
     </row>
     <row r="194" spans="1:8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -9022,10 +9038,10 @@
     </row>
     <row r="195" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -9038,10 +9054,10 @@
     </row>
     <row r="196" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -9054,10 +9070,10 @@
     </row>
     <row r="197" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>694</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>695</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -9070,10 +9086,10 @@
     </row>
     <row r="198" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -9086,10 +9102,10 @@
     </row>
     <row r="199" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -9102,10 +9118,10 @@
     </row>
     <row r="200" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -9118,10 +9134,10 @@
     </row>
     <row r="201" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -9134,13 +9150,13 @@
     </row>
     <row r="202" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>673</v>
-      </c>
       <c r="C202" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -9152,10 +9168,10 @@
     </row>
     <row r="203" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -9168,10 +9184,10 @@
     </row>
     <row r="204" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -9184,10 +9200,10 @@
     </row>
     <row r="205" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -9200,10 +9216,10 @@
     </row>
     <row r="206" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>1041</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>1042</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -9216,10 +9232,10 @@
     </row>
     <row r="207" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>1044</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -9232,10 +9248,10 @@
     </row>
     <row r="208" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>1045</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>1046</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -9248,10 +9264,10 @@
     </row>
     <row r="209" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -9264,10 +9280,10 @@
     </row>
     <row r="210" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -9280,10 +9296,10 @@
     </row>
     <row r="211" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -9296,10 +9312,10 @@
     </row>
     <row r="212" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -9312,10 +9328,10 @@
     </row>
     <row r="213" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -9328,10 +9344,10 @@
     </row>
     <row r="214" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -9344,10 +9360,10 @@
     </row>
     <row r="215" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -9360,10 +9376,10 @@
     </row>
     <row r="216" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -9376,10 +9392,10 @@
     </row>
     <row r="217" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -9392,10 +9408,10 @@
     </row>
     <row r="218" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -9408,10 +9424,10 @@
     </row>
     <row r="219" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -9424,10 +9440,10 @@
     </row>
     <row r="220" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -9440,10 +9456,10 @@
     </row>
     <row r="221" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>911</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>912</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -9456,10 +9472,10 @@
     </row>
     <row r="222" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>636</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -9472,10 +9488,10 @@
     </row>
     <row r="223" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>1278</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>1279</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -9488,10 +9504,10 @@
     </row>
     <row r="224" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -9504,10 +9520,10 @@
     </row>
     <row r="225" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -9520,10 +9536,10 @@
     </row>
     <row r="226" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>1062</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -9536,10 +9552,10 @@
     </row>
     <row r="227" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>1064</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -9552,10 +9568,10 @@
     </row>
     <row r="228" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>978</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -9568,10 +9584,10 @@
     </row>
     <row r="229" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -9584,10 +9600,10 @@
     </row>
     <row r="230" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -9600,10 +9616,10 @@
     </row>
     <row r="231" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>937</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -9616,13 +9632,13 @@
     </row>
     <row r="232" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="C232" s="1" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -9634,10 +9650,10 @@
     </row>
     <row r="233" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -9650,10 +9666,10 @@
     </row>
     <row r="234" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -9666,10 +9682,10 @@
     </row>
     <row r="235" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>1272</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>1273</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -9682,10 +9698,10 @@
     </row>
     <row r="236" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -9698,10 +9714,10 @@
     </row>
     <row r="237" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>1013</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>1014</v>
       </c>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -9714,10 +9730,10 @@
     </row>
     <row r="238" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -9730,10 +9746,10 @@
     </row>
     <row r="239" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>1147</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>1148</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -9746,10 +9762,10 @@
     </row>
     <row r="240" spans="1:8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -9762,10 +9778,10 @@
     </row>
     <row r="241" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>1476</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>1477</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -9778,10 +9794,10 @@
     </row>
     <row r="242" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>1474</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>1475</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -9794,10 +9810,10 @@
     </row>
     <row r="243" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>1478</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>1479</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -9810,10 +9826,10 @@
     </row>
     <row r="244" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>1066</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -9906,10 +9922,10 @@
     </row>
     <row r="250" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -9922,10 +9938,10 @@
     </row>
     <row r="251" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>975</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>976</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="1" t="s">
@@ -9940,10 +9956,10 @@
     </row>
     <row r="252" spans="1:8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -9956,10 +9972,10 @@
     </row>
     <row r="253" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -9972,10 +9988,10 @@
     </row>
     <row r="254" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -9988,10 +10004,10 @@
     </row>
     <row r="255" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -10004,10 +10020,10 @@
     </row>
     <row r="256" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>786</v>
       </c>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -10020,10 +10036,10 @@
     </row>
     <row r="257" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -10036,10 +10052,10 @@
     </row>
     <row r="258" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>1464</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>1465</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -10052,10 +10068,10 @@
     </row>
     <row r="259" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>1466</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>1467</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -10068,10 +10084,10 @@
     </row>
     <row r="260" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>1468</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>1469</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -10084,10 +10100,10 @@
     </row>
     <row r="261" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>1470</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>1471</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -10100,10 +10116,10 @@
     </row>
     <row r="262" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>1472</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>1473</v>
       </c>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -10116,10 +10132,10 @@
     </row>
     <row r="263" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>1067</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>1068</v>
       </c>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -10132,10 +10148,10 @@
     </row>
     <row r="264" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>1070</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -10148,10 +10164,10 @@
     </row>
     <row r="265" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>980</v>
       </c>
       <c r="C265" s="1"/>
       <c r="D265" s="1" t="s">
@@ -10168,10 +10184,10 @@
     </row>
     <row r="266" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>982</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1" t="s">
@@ -10188,10 +10204,10 @@
     </row>
     <row r="267" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="C267" s="1"/>
       <c r="D267" s="1" t="s">
@@ -10206,10 +10222,10 @@
     </row>
     <row r="268" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>871</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>872</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -10222,10 +10238,10 @@
     </row>
     <row r="269" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>874</v>
       </c>
       <c r="C269" s="1"/>
       <c r="D269" s="1" t="s">
@@ -10242,10 +10258,10 @@
     </row>
     <row r="270" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -10258,10 +10274,10 @@
     </row>
     <row r="271" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -10274,10 +10290,10 @@
     </row>
     <row r="272" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>983</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>984</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -10290,10 +10306,10 @@
     </row>
     <row r="273" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -10306,10 +10322,10 @@
     </row>
     <row r="274" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>1071</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>1072</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -10322,10 +10338,10 @@
     </row>
     <row r="275" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>1073</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>1074</v>
       </c>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -10338,10 +10354,10 @@
     </row>
     <row r="276" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>1075</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>1076</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -10354,10 +10370,10 @@
     </row>
     <row r="277" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>988</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -10370,10 +10386,10 @@
     </row>
     <row r="278" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -10386,10 +10402,10 @@
     </row>
     <row r="279" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>732</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -10402,10 +10418,10 @@
     </row>
     <row r="280" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -10418,10 +10434,10 @@
     </row>
     <row r="281" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -10434,10 +10450,10 @@
     </row>
     <row r="282" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -10450,10 +10466,10 @@
     </row>
     <row r="283" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -10466,10 +10482,10 @@
     </row>
     <row r="284" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -10482,10 +10498,10 @@
     </row>
     <row r="285" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="C285" s="1"/>
       <c r="D285" s="1"/>
@@ -10498,10 +10514,10 @@
     </row>
     <row r="286" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>639</v>
       </c>
       <c r="C286" s="1"/>
       <c r="D286" s="1"/>
@@ -10514,10 +10530,10 @@
     </row>
     <row r="287" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>1155</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1" t="s">
@@ -10532,10 +10548,10 @@
     </row>
     <row r="288" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C288" s="1"/>
       <c r="D288" s="1" t="s">
@@ -10550,10 +10566,10 @@
     </row>
     <row r="289" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C289" s="1"/>
       <c r="D289" s="1" t="s">
@@ -10566,10 +10582,10 @@
     </row>
     <row r="290" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="1" t="s">
@@ -10584,10 +10600,10 @@
     </row>
     <row r="291" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="1" t="s">
@@ -10602,10 +10618,10 @@
     </row>
     <row r="292" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="C292" s="1"/>
       <c r="D292" s="1" t="s">
@@ -10620,10 +10636,10 @@
     </row>
     <row r="293" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="C293" s="1"/>
       <c r="D293" s="1" t="s">
@@ -10638,10 +10654,10 @@
     </row>
     <row r="294" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>513</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>514</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="1" t="s">
@@ -10654,10 +10670,10 @@
     </row>
     <row r="295" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="C295" s="1"/>
       <c r="D295" s="1" t="s">
@@ -10670,10 +10686,10 @@
     </row>
     <row r="296" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="C296" s="1"/>
       <c r="D296" s="1" t="s">
@@ -10686,10 +10702,10 @@
     </row>
     <row r="297" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>531</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1" t="s">
@@ -10702,10 +10718,10 @@
     </row>
     <row r="298" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="C298" s="1"/>
       <c r="D298" s="1" t="s">
@@ -10718,10 +10734,10 @@
     </row>
     <row r="299" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="C299" s="1"/>
       <c r="D299" s="1" t="s">
@@ -10734,10 +10750,10 @@
     </row>
     <row r="300" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="C300" s="1"/>
       <c r="D300" s="1" t="s">
@@ -10750,10 +10766,10 @@
     </row>
     <row r="301" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="C301" s="1"/>
       <c r="D301" s="1" t="s">
@@ -10766,10 +10782,10 @@
     </row>
     <row r="302" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="C302" s="1"/>
       <c r="D302" s="1" t="s">
@@ -10782,10 +10798,10 @@
     </row>
     <row r="303" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="C303" s="1"/>
       <c r="D303" s="1" t="s">
@@ -10798,10 +10814,10 @@
     </row>
     <row r="304" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>1157</v>
       </c>
       <c r="C304" s="1"/>
       <c r="D304" s="1" t="s">
@@ -10814,10 +10830,10 @@
     </row>
     <row r="305" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="C305" s="1"/>
       <c r="D305" s="1" t="s">
@@ -10830,10 +10846,10 @@
     </row>
     <row r="306" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="C306" s="1"/>
       <c r="D306" s="1" t="s">
@@ -10846,10 +10862,10 @@
     </row>
     <row r="307" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="1" t="s">
@@ -10862,17 +10878,17 @@
     </row>
     <row r="308" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
@@ -10880,10 +10896,10 @@
     </row>
     <row r="309" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="C309" s="1"/>
       <c r="D309" s="1" t="s">
@@ -10898,10 +10914,10 @@
     </row>
     <row r="310" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="C310" s="1"/>
       <c r="D310" s="1" t="s">
@@ -10916,10 +10932,10 @@
     </row>
     <row r="311" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="1" t="s">
@@ -10934,10 +10950,10 @@
     </row>
     <row r="312" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="C312" s="1"/>
       <c r="D312" s="1" t="s">
@@ -10950,10 +10966,10 @@
     </row>
     <row r="313" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>1058</v>
       </c>
       <c r="C313" s="1"/>
       <c r="D313" s="1" t="s">
@@ -10968,17 +10984,17 @@
     </row>
     <row r="314" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>1059</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>1060</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F314" s="1"/>
       <c r="G314" s="1"/>
@@ -10986,10 +11002,10 @@
     </row>
     <row r="315" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C315" s="1"/>
       <c r="D315" s="1"/>
@@ -11002,10 +11018,10 @@
     </row>
     <row r="316" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -11018,10 +11034,10 @@
     </row>
     <row r="317" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="C317" s="1"/>
       <c r="D317" s="1"/>
@@ -11034,10 +11050,10 @@
     </row>
     <row r="318" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="C318" s="1"/>
       <c r="D318" s="1"/>
@@ -11050,10 +11066,10 @@
     </row>
     <row r="319" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="C319" s="1"/>
       <c r="D319" s="1"/>
@@ -11066,10 +11082,10 @@
     </row>
     <row r="320" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="C320" s="1"/>
       <c r="D320" s="1"/>
@@ -11082,10 +11098,10 @@
     </row>
     <row r="321" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C321" s="1"/>
       <c r="D321" s="1"/>
@@ -11100,10 +11116,10 @@
     </row>
     <row r="322" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="1"/>
@@ -11116,10 +11132,10 @@
     </row>
     <row r="323" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="1"/>
@@ -11132,10 +11148,10 @@
     </row>
     <row r="324" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="C324" s="1"/>
       <c r="D324" s="1"/>
@@ -11148,10 +11164,10 @@
     </row>
     <row r="325" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="C325" s="1"/>
       <c r="D325" s="1"/>
@@ -11164,10 +11180,10 @@
     </row>
     <row r="326" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="1"/>
@@ -11180,10 +11196,10 @@
     </row>
     <row r="327" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -11196,10 +11212,10 @@
     </row>
     <row r="328" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="C328" s="1"/>
       <c r="D328" s="1"/>
@@ -11212,10 +11228,10 @@
     </row>
     <row r="329" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="1"/>
@@ -11228,10 +11244,10 @@
     </row>
     <row r="330" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -11244,10 +11260,10 @@
     </row>
     <row r="331" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="C331" s="1"/>
       <c r="D331" s="1"/>
@@ -11260,10 +11276,10 @@
     </row>
     <row r="332" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>1158</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="C332" s="1"/>
       <c r="D332" s="1"/>
@@ -11276,10 +11292,10 @@
     </row>
     <row r="333" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="C333" s="1"/>
       <c r="D333" s="1"/>
@@ -11292,10 +11308,10 @@
     </row>
     <row r="334" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>897</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>898</v>
       </c>
       <c r="C334" s="1"/>
       <c r="D334" s="1"/>
@@ -11308,10 +11324,10 @@
     </row>
     <row r="335" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>900</v>
       </c>
       <c r="C335" s="1"/>
       <c r="D335" s="1"/>
@@ -11324,10 +11340,10 @@
     </row>
     <row r="336" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="C336" s="1"/>
       <c r="D336" s="1" t="s">
@@ -11340,10 +11356,10 @@
     </row>
     <row r="337" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="C337" s="1"/>
       <c r="D337" s="1" t="s">
@@ -11356,10 +11372,10 @@
     </row>
     <row r="338" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -11372,10 +11388,10 @@
     </row>
     <row r="339" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="C339" s="1"/>
       <c r="D339" s="1"/>
@@ -11388,10 +11404,10 @@
     </row>
     <row r="340" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>1281</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>1282</v>
       </c>
       <c r="C340" s="1"/>
       <c r="D340" s="1"/>
@@ -11404,10 +11420,10 @@
     </row>
     <row r="341" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>1283</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>1284</v>
       </c>
       <c r="C341" s="1"/>
       <c r="D341" s="1"/>
@@ -11420,10 +11436,10 @@
     </row>
     <row r="342" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>1285</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>1286</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="1"/>
@@ -11436,10 +11452,10 @@
     </row>
     <row r="343" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>1287</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>1288</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="1"/>
@@ -11452,10 +11468,10 @@
     </row>
     <row r="344" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>1289</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>1290</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="1"/>
@@ -11468,10 +11484,10 @@
     </row>
     <row r="345" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>1291</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>1292</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="1"/>
@@ -11484,10 +11500,10 @@
     </row>
     <row r="346" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>1293</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>1294</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="1"/>
@@ -11500,10 +11516,10 @@
     </row>
     <row r="347" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B347" s="2" t="s">
         <v>1297</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>1298</v>
       </c>
       <c r="C347" s="1"/>
       <c r="D347" s="1"/>
@@ -11516,10 +11532,10 @@
     </row>
     <row r="348" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>1299</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>1300</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="1"/>
@@ -11532,10 +11548,10 @@
     </row>
     <row r="349" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>1301</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>1302</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="1"/>
@@ -11548,10 +11564,10 @@
     </row>
     <row r="350" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>1303</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>1304</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -11564,10 +11580,10 @@
     </row>
     <row r="351" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>1305</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>1306</v>
       </c>
       <c r="C351" s="1"/>
       <c r="D351" s="1"/>
@@ -11580,10 +11596,10 @@
     </row>
     <row r="352" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>1307</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>1308</v>
       </c>
       <c r="C352" s="1"/>
       <c r="D352" s="1"/>
@@ -11596,10 +11612,10 @@
     </row>
     <row r="353" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>1309</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>1310</v>
       </c>
       <c r="C353" s="1"/>
       <c r="D353" s="1"/>
@@ -11612,10 +11628,10 @@
     </row>
     <row r="354" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C354" s="1"/>
       <c r="D354" s="1"/>
@@ -11628,10 +11644,10 @@
     </row>
     <row r="355" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>1313</v>
       </c>
       <c r="C355" s="1"/>
       <c r="D355" s="1"/>
@@ -11644,10 +11660,10 @@
     </row>
     <row r="356" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>1314</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>1315</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -11660,10 +11676,10 @@
     </row>
     <row r="357" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B357" s="2" t="s">
         <v>1316</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>1317</v>
       </c>
       <c r="C357" s="1"/>
       <c r="D357" s="1"/>
@@ -11676,10 +11692,10 @@
     </row>
     <row r="358" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B358" s="2" t="s">
         <v>1318</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>1319</v>
       </c>
       <c r="C358" s="1"/>
       <c r="D358" s="1"/>
@@ -11692,10 +11708,10 @@
     </row>
     <row r="359" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>1320</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>1321</v>
       </c>
       <c r="C359" s="1"/>
       <c r="D359" s="1"/>
@@ -11708,10 +11724,10 @@
     </row>
     <row r="360" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>1322</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>1323</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1"/>
@@ -11724,10 +11740,10 @@
     </row>
     <row r="361" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>1324</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>1325</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="1"/>
@@ -11740,10 +11756,10 @@
     </row>
     <row r="362" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>1326</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>1327</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1"/>
@@ -11756,10 +11772,10 @@
     </row>
     <row r="363" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>1328</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>1329</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1"/>
@@ -11772,10 +11788,10 @@
     </row>
     <row r="364" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>1330</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>1331</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="1"/>
@@ -11788,10 +11804,10 @@
     </row>
     <row r="365" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>1332</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>1333</v>
       </c>
       <c r="C365" s="1"/>
       <c r="D365" s="1"/>
@@ -11804,10 +11820,10 @@
     </row>
     <row r="366" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>1334</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>1335</v>
       </c>
       <c r="C366" s="1"/>
       <c r="D366" s="1"/>
@@ -11820,10 +11836,10 @@
     </row>
     <row r="367" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>1336</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>1337</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="1"/>
@@ -11836,10 +11852,10 @@
     </row>
     <row r="368" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>1338</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>1339</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -11852,10 +11868,10 @@
     </row>
     <row r="369" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>1340</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>1341</v>
       </c>
       <c r="C369" s="1"/>
       <c r="D369" s="1"/>
@@ -11868,10 +11884,10 @@
     </row>
     <row r="370" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>1424</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>1425</v>
       </c>
       <c r="C370" s="1"/>
       <c r="D370" s="1"/>
@@ -11884,10 +11900,10 @@
     </row>
     <row r="371" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>1342</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>1343</v>
       </c>
       <c r="C371" s="1"/>
       <c r="D371" s="1"/>
@@ -11900,10 +11916,10 @@
     </row>
     <row r="372" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>1344</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>1345</v>
       </c>
       <c r="C372" s="1"/>
       <c r="D372" s="1"/>
@@ -11916,10 +11932,10 @@
     </row>
     <row r="373" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>1346</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>1347</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
@@ -11932,10 +11948,10 @@
     </row>
     <row r="374" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>1348</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>1349</v>
       </c>
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
@@ -11948,10 +11964,10 @@
     </row>
     <row r="375" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>1350</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>1351</v>
       </c>
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
@@ -11964,10 +11980,10 @@
     </row>
     <row r="376" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>1352</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>1353</v>
       </c>
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
@@ -11980,10 +11996,10 @@
     </row>
     <row r="377" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>1354</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>1355</v>
       </c>
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
@@ -11996,10 +12012,10 @@
     </row>
     <row r="378" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>1356</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>1357</v>
       </c>
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
@@ -12012,10 +12028,10 @@
     </row>
     <row r="379" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>1358</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>1359</v>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
@@ -12028,10 +12044,10 @@
     </row>
     <row r="380" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>1366</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>1367</v>
       </c>
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
@@ -12044,10 +12060,10 @@
     </row>
     <row r="381" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>1368</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>1369</v>
       </c>
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
@@ -12060,10 +12076,10 @@
     </row>
     <row r="382" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>1370</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>1371</v>
       </c>
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
@@ -12076,10 +12092,10 @@
     </row>
     <row r="383" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>1372</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>1373</v>
       </c>
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
@@ -12092,10 +12108,10 @@
     </row>
     <row r="384" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B384" s="2" t="s">
         <v>1374</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>1375</v>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
@@ -12108,10 +12124,10 @@
     </row>
     <row r="385" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>1376</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>1377</v>
       </c>
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
@@ -12124,10 +12140,10 @@
     </row>
     <row r="386" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>1430</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>1431</v>
       </c>
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
@@ -12140,10 +12156,10 @@
     </row>
     <row r="387" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B387" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>1146</v>
       </c>
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
@@ -12156,10 +12172,10 @@
     </row>
     <row r="388" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B388" s="2" t="s">
         <v>1432</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>1433</v>
       </c>
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
@@ -12172,10 +12188,10 @@
     </row>
     <row r="389" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>1434</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>1435</v>
       </c>
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
@@ -12188,10 +12204,10 @@
     </row>
     <row r="390" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>1380</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>1381</v>
       </c>
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
@@ -12204,10 +12220,10 @@
     </row>
     <row r="391" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B391" s="2" t="s">
         <v>1378</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>1379</v>
       </c>
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
@@ -12220,10 +12236,10 @@
     </row>
     <row r="392" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B392" s="2" t="s">
         <v>1382</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>1383</v>
       </c>
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
@@ -12236,10 +12252,10 @@
     </row>
     <row r="393" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>1384</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>1385</v>
       </c>
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
@@ -12252,10 +12268,10 @@
     </row>
     <row r="394" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>1386</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>1387</v>
       </c>
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
@@ -12268,10 +12284,10 @@
     </row>
     <row r="395" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>1388</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>1389</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
@@ -12284,10 +12300,10 @@
     </row>
     <row r="396" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>1390</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>1391</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
@@ -12300,10 +12316,10 @@
     </row>
     <row r="397" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>1392</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>1393</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
@@ -12316,10 +12332,10 @@
     </row>
     <row r="398" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B398" s="2" t="s">
         <v>1394</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>1395</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
@@ -12332,10 +12348,10 @@
     </row>
     <row r="399" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>1396</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>1397</v>
       </c>
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
@@ -12348,10 +12364,10 @@
     </row>
     <row r="400" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>1398</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>1399</v>
       </c>
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
@@ -12364,10 +12380,10 @@
     </row>
     <row r="401" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>1400</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>1401</v>
       </c>
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
@@ -12380,10 +12396,10 @@
     </row>
     <row r="402" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>1402</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>1403</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
@@ -12396,10 +12412,10 @@
     </row>
     <row r="403" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B403" s="2" t="s">
         <v>1404</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>1405</v>
       </c>
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
@@ -12412,10 +12428,10 @@
     </row>
     <row r="404" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>1406</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>1407</v>
       </c>
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
@@ -12428,10 +12444,10 @@
     </row>
     <row r="405" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
@@ -12444,10 +12460,10 @@
     </row>
     <row r="406" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>1117</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>1118</v>
       </c>
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
@@ -12460,10 +12476,10 @@
     </row>
     <row r="407" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>1119</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>1120</v>
       </c>
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
@@ -12476,10 +12492,10 @@
     </row>
     <row r="408" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>1121</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>1122</v>
       </c>
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
@@ -12492,10 +12508,10 @@
     </row>
     <row r="409" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>1123</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>1124</v>
       </c>
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
@@ -12508,10 +12524,10 @@
     </row>
     <row r="410" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>1127</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>1128</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
@@ -12524,10 +12540,10 @@
     </row>
     <row r="411" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>1129</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>1130</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
@@ -12540,10 +12556,10 @@
     </row>
     <row r="412" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B412" s="2" t="s">
         <v>1131</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>1132</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
@@ -12556,10 +12572,10 @@
     </row>
     <row r="413" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>1134</v>
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
@@ -12572,10 +12588,10 @@
     </row>
     <row r="414" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
@@ -12588,10 +12604,10 @@
     </row>
     <row r="415" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>1137</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>1138</v>
       </c>
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
@@ -12604,10 +12620,10 @@
     </row>
     <row r="416" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>1436</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>1437</v>
       </c>
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
@@ -12620,10 +12636,10 @@
     </row>
     <row r="417" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>1438</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>1439</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
@@ -12636,10 +12652,10 @@
     </row>
     <row r="418" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>1144</v>
       </c>
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
@@ -12652,10 +12668,10 @@
     </row>
     <row r="419" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>1139</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>1140</v>
       </c>
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
@@ -12668,10 +12684,10 @@
     </row>
     <row r="420" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B420" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
@@ -12684,10 +12700,10 @@
     </row>
     <row r="421" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>1408</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>1409</v>
       </c>
       <c r="C421" s="1"/>
       <c r="D421" s="1"/>
@@ -12700,10 +12716,10 @@
     </row>
     <row r="422" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>1410</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>1411</v>
       </c>
       <c r="C422" s="1"/>
       <c r="D422" s="1"/>
@@ -12716,10 +12732,10 @@
     </row>
     <row r="423" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>1412</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>1413</v>
       </c>
       <c r="C423" s="1"/>
       <c r="D423" s="1"/>
@@ -12732,10 +12748,10 @@
     </row>
     <row r="424" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>1414</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>1415</v>
       </c>
       <c r="C424" s="1"/>
       <c r="D424" s="1"/>
@@ -12748,10 +12764,10 @@
     </row>
     <row r="425" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B425" s="2" t="s">
         <v>1416</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>1417</v>
       </c>
       <c r="C425" s="1"/>
       <c r="D425" s="1"/>
@@ -12764,10 +12780,10 @@
     </row>
     <row r="426" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B426" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>1419</v>
       </c>
       <c r="C426" s="1"/>
       <c r="D426" s="1"/>
@@ -12780,10 +12796,10 @@
     </row>
     <row r="427" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>1420</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>1421</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="1"/>
@@ -12796,10 +12812,10 @@
     </row>
     <row r="428" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>1426</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>1427</v>
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="1"/>
@@ -12812,10 +12828,10 @@
     </row>
     <row r="429" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>1428</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>1429</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="1"/>
@@ -12828,10 +12844,10 @@
     </row>
     <row r="430" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>1440</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>1441</v>
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="1"/>
@@ -12844,10 +12860,10 @@
     </row>
     <row r="431" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B431" s="2" t="s">
         <v>1442</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>1443</v>
       </c>
       <c r="C431" s="1"/>
       <c r="D431" s="1"/>
@@ -12860,10 +12876,10 @@
     </row>
     <row r="432" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>1444</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>1445</v>
       </c>
       <c r="C432" s="1"/>
       <c r="D432" s="1"/>
@@ -12876,10 +12892,10 @@
     </row>
     <row r="433" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B433" s="2" t="s">
         <v>1446</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>1447</v>
       </c>
       <c r="C433" s="1"/>
       <c r="D433" s="1"/>
@@ -12892,10 +12908,10 @@
     </row>
     <row r="434" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>1448</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>1449</v>
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="1"/>
@@ -12908,10 +12924,10 @@
     </row>
     <row r="435" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>1450</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>1451</v>
       </c>
       <c r="C435" s="1"/>
       <c r="D435" s="1"/>
@@ -12924,10 +12940,10 @@
     </row>
     <row r="436" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>1452</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>1453</v>
       </c>
       <c r="C436" s="1"/>
       <c r="D436" s="1"/>
@@ -12940,10 +12956,10 @@
     </row>
     <row r="437" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>1160</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>1161</v>
       </c>
       <c r="C437" s="1"/>
       <c r="D437" s="1"/>
@@ -12956,10 +12972,10 @@
     </row>
     <row r="438" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>1162</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>1163</v>
       </c>
       <c r="C438" s="1"/>
       <c r="D438" s="1"/>
@@ -12972,10 +12988,10 @@
     </row>
     <row r="439" spans="1:8" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
@@ -12988,10 +13004,10 @@
     </row>
     <row r="440" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>1168</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
@@ -13004,10 +13020,10 @@
     </row>
     <row r="441" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>1170</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>1171</v>
       </c>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
@@ -13020,10 +13036,10 @@
     </row>
     <row r="442" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
@@ -13036,10 +13052,10 @@
     </row>
     <row r="443" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>1454</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>1455</v>
       </c>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
@@ -13052,10 +13068,10 @@
     </row>
     <row r="444" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>1172</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>1173</v>
       </c>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
@@ -13068,10 +13084,10 @@
     </row>
     <row r="445" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>1174</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>1175</v>
       </c>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
@@ -13084,10 +13100,10 @@
     </row>
     <row r="446" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B446" s="2" t="s">
         <v>1176</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>1177</v>
       </c>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
@@ -13100,10 +13116,10 @@
     </row>
     <row r="447" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B447" s="2" t="s">
         <v>1178</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>1179</v>
       </c>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
@@ -13116,10 +13132,10 @@
     </row>
     <row r="448" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B448" s="2" t="s">
         <v>1180</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>1181</v>
       </c>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
@@ -13132,10 +13148,10 @@
     </row>
     <row r="449" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>1182</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>1183</v>
       </c>
       <c r="C449" s="1"/>
       <c r="D449" s="1"/>
@@ -13148,10 +13164,10 @@
     </row>
     <row r="450" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B450" s="2" t="s">
         <v>1184</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>1185</v>
       </c>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
@@ -13164,10 +13180,10 @@
     </row>
     <row r="451" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>1186</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>1187</v>
       </c>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
@@ -13404,10 +13420,10 @@
     </row>
     <row r="466" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B466" s="2" t="s">
         <v>1188</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>1189</v>
       </c>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
@@ -13420,10 +13436,10 @@
     </row>
     <row r="467" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B467" s="2" t="s">
         <v>1222</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>1223</v>
       </c>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
@@ -13438,10 +13454,10 @@
     </row>
     <row r="468" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>1190</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>1191</v>
       </c>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
@@ -13454,10 +13470,10 @@
     </row>
     <row r="469" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>1192</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>1193</v>
       </c>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
@@ -13470,10 +13486,10 @@
     </row>
     <row r="470" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>1194</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>1195</v>
       </c>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
@@ -13486,10 +13502,10 @@
     </row>
     <row r="471" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>1196</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>1197</v>
       </c>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
@@ -13502,10 +13518,10 @@
     </row>
     <row r="472" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>1198</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>1199</v>
       </c>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
@@ -13518,10 +13534,10 @@
     </row>
     <row r="473" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B473" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>1201</v>
       </c>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
@@ -13534,10 +13550,10 @@
     </row>
     <row r="474" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>1202</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>1203</v>
       </c>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
@@ -13550,10 +13566,10 @@
     </row>
     <row r="475" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B475" s="2" t="s">
         <v>1204</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>1205</v>
       </c>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
@@ -13566,10 +13582,10 @@
     </row>
     <row r="476" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B476" s="2" t="s">
         <v>1206</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>1207</v>
       </c>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
@@ -13742,10 +13758,10 @@
     </row>
     <row r="487" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B487" s="2" t="s">
         <v>1208</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>1209</v>
       </c>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
@@ -13758,10 +13774,10 @@
     </row>
     <row r="488" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>1210</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>1211</v>
       </c>
       <c r="C488" s="1"/>
       <c r="D488" s="1"/>
@@ -13774,10 +13790,10 @@
     </row>
     <row r="489" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
@@ -13790,10 +13806,10 @@
     </row>
     <row r="490" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B490" s="2" t="s">
         <v>1212</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>1213</v>
       </c>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
@@ -13806,10 +13822,10 @@
     </row>
     <row r="491" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B491" s="2" t="s">
         <v>1214</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>1215</v>
       </c>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
@@ -13822,10 +13838,10 @@
     </row>
     <row r="492" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B492" s="2" t="s">
         <v>1216</v>
-      </c>
-      <c r="B492" s="2" t="s">
-        <v>1217</v>
       </c>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
@@ -13838,10 +13854,10 @@
     </row>
     <row r="493" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B493" s="2" t="s">
         <v>1218</v>
-      </c>
-      <c r="B493" s="2" t="s">
-        <v>1219</v>
       </c>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
@@ -13854,10 +13870,10 @@
     </row>
     <row r="494" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B494" s="2" t="s">
         <v>1220</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>1221</v>
       </c>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
@@ -13870,10 +13886,10 @@
     </row>
     <row r="495" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B495" s="2" t="s">
         <v>1224</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>1225</v>
       </c>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
@@ -13886,10 +13902,10 @@
     </row>
     <row r="496" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B496" s="2" t="s">
         <v>1226</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>1227</v>
       </c>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
@@ -13902,10 +13918,10 @@
     </row>
     <row r="497" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B497" s="2" t="s">
         <v>1228</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>1229</v>
       </c>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
@@ -13918,10 +13934,10 @@
     </row>
     <row r="498" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B498" s="2" t="s">
         <v>1230</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>1231</v>
       </c>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
@@ -13934,10 +13950,10 @@
     </row>
     <row r="499" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B499" s="2" t="s">
         <v>1232</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>1233</v>
       </c>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
@@ -13950,10 +13966,10 @@
     </row>
     <row r="500" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B500" s="2" t="s">
         <v>1234</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>1235</v>
       </c>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
@@ -13966,10 +13982,10 @@
     </row>
     <row r="501" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B501" s="2" t="s">
         <v>1236</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>1237</v>
       </c>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
@@ -13982,10 +13998,10 @@
     </row>
     <row r="502" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>1238</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>1239</v>
       </c>
       <c r="C502" s="1"/>
       <c r="D502" s="1"/>
@@ -13998,10 +14014,10 @@
     </row>
     <row r="503" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B503" s="2" t="s">
         <v>1240</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>1241</v>
       </c>
       <c r="C503" s="1"/>
       <c r="D503" s="1"/>
@@ -14014,10 +14030,10 @@
     </row>
     <row r="504" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B504" s="2" t="s">
         <v>1242</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>1243</v>
       </c>
       <c r="C504" s="1"/>
       <c r="D504" s="1"/>
@@ -14030,10 +14046,10 @@
     </row>
     <row r="505" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>1244</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>1245</v>
       </c>
       <c r="C505" s="1"/>
       <c r="D505" s="1"/>
@@ -14046,10 +14062,10 @@
     </row>
     <row r="506" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B506" s="2" t="s">
         <v>1246</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>1247</v>
       </c>
       <c r="C506" s="1"/>
       <c r="D506" s="1"/>
@@ -14062,10 +14078,10 @@
     </row>
     <row r="507" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C507" s="1"/>
       <c r="D507" s="1"/>
@@ -14078,10 +14094,10 @@
     </row>
     <row r="508" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B508" s="2" t="s">
         <v>1249</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>1250</v>
       </c>
       <c r="C508" s="1"/>
       <c r="D508" s="1"/>
@@ -14094,10 +14110,10 @@
     </row>
     <row r="509" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B509" s="2" t="s">
         <v>1251</v>
-      </c>
-      <c r="B509" s="2" t="s">
-        <v>1252</v>
       </c>
       <c r="C509" s="1"/>
       <c r="D509" s="1"/>
@@ -14110,10 +14126,10 @@
     </row>
     <row r="510" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B510" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C510" s="1"/>
       <c r="D510" s="1"/>
@@ -14126,13 +14142,13 @@
     </row>
     <row r="511" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B511" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B511" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="C511" s="1" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>11</v>
@@ -14148,10 +14164,10 @@
     </row>
     <row r="512" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B512" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="C512" s="1"/>
       <c r="D512" s="1"/>
@@ -14228,10 +14244,10 @@
     </row>
     <row r="517" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B517" s="2" t="s">
         <v>1254</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>1255</v>
       </c>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>
@@ -14244,10 +14260,10 @@
     </row>
     <row r="518" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B518" s="2" t="s">
         <v>1256</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>1257</v>
       </c>
       <c r="C518" s="1"/>
       <c r="D518" s="1"/>
@@ -14260,10 +14276,10 @@
     </row>
     <row r="519" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B519" s="2" t="s">
         <v>1258</v>
-      </c>
-      <c r="B519" s="2" t="s">
-        <v>1259</v>
       </c>
       <c r="C519" s="1"/>
       <c r="D519" s="1"/>
@@ -14276,10 +14292,10 @@
     </row>
     <row r="520" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B520" s="2" t="s">
         <v>1260</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>1261</v>
       </c>
       <c r="C520" s="1"/>
       <c r="D520" s="1"/>
@@ -14292,10 +14308,10 @@
     </row>
     <row r="521" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B521" s="2" t="s">
         <v>1262</v>
-      </c>
-      <c r="B521" s="2" t="s">
-        <v>1263</v>
       </c>
       <c r="C521" s="1"/>
       <c r="D521" s="1"/>
@@ -14308,10 +14324,10 @@
     </row>
     <row r="522" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B522" s="2" t="s">
         <v>1264</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>1265</v>
       </c>
       <c r="C522" s="1"/>
       <c r="D522" s="1"/>
@@ -14324,10 +14340,10 @@
     </row>
     <row r="523" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B523" s="2" t="s">
         <v>1266</v>
-      </c>
-      <c r="B523" s="2" t="s">
-        <v>1267</v>
       </c>
       <c r="C523" s="1"/>
       <c r="D523" s="1"/>
@@ -14340,10 +14356,10 @@
     </row>
     <row r="524" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B524" s="2" t="s">
         <v>1270</v>
-      </c>
-      <c r="B524" s="2" t="s">
-        <v>1271</v>
       </c>
       <c r="C524" s="1"/>
       <c r="D524" s="1"/>
@@ -14372,10 +14388,10 @@
     </row>
     <row r="526" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B526" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B526" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
@@ -14439,10 +14455,10 @@
         <v>97</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C530" s="8" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -14459,7 +14475,7 @@
         <v>98</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
@@ -14669,10 +14685,10 @@
         <v>123</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C544" s="8" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -14942,10 +14958,10 @@
     </row>
     <row r="561" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C561" s="1"/>
       <c r="D561" s="1"/>
@@ -15012,7 +15028,7 @@
         <v>161</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -15104,10 +15120,10 @@
     </row>
     <row r="571" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B571" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B571" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="C571" s="1"/>
       <c r="D571" s="1"/>
@@ -15139,7 +15155,7 @@
         <v>408</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C573" s="1"/>
       <c r="D573" s="1" t="s">
@@ -15223,11 +15239,11 @@
         <v>419</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="C578" s="1"/>
       <c r="D578" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E578" s="1"/>
       <c r="F578" s="9" t="s">
@@ -15403,11 +15419,11 @@
         <v>422</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="C589" s="1"/>
       <c r="D589" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E589" s="1"/>
       <c r="F589" s="9" t="s">
@@ -15455,11 +15471,11 @@
         <v>427</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C592" s="1"/>
       <c r="D592" s="1" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E592" s="1"/>
       <c r="F592" s="9" t="s">
@@ -15552,10 +15568,10 @@
     </row>
     <row r="598" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B598" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B598" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="C598" s="1"/>
       <c r="D598" s="1"/>
@@ -15568,10 +15584,10 @@
     </row>
     <row r="599" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C599" s="1"/>
       <c r="D599" s="1"/>
@@ -15584,10 +15600,10 @@
     </row>
     <row r="600" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B600" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B600" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="C600" s="1"/>
       <c r="D600" s="1"/>
@@ -15600,10 +15616,10 @@
     </row>
     <row r="601" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B601" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B601" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="C601" s="1"/>
       <c r="D601" s="1"/>
@@ -15616,10 +15632,10 @@
     </row>
     <row r="602" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B602" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B602" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="C602" s="1"/>
       <c r="D602" s="1"/>
@@ -15632,10 +15648,10 @@
     </row>
     <row r="603" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C603" s="1"/>
       <c r="D603" s="1"/>
@@ -15648,10 +15664,10 @@
     </row>
     <row r="604" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B604" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="B604" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="C604" s="1"/>
       <c r="D604" s="1"/>
@@ -15664,10 +15680,10 @@
     </row>
     <row r="605" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B605" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B605" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="C605" s="1"/>
       <c r="D605" s="1"/>
@@ -15680,10 +15696,10 @@
     </row>
     <row r="606" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B606" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B606" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="C606" s="1"/>
       <c r="D606" s="1"/>
@@ -15696,10 +15712,10 @@
     </row>
     <row r="607" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B607" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B607" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="C607" s="1"/>
       <c r="D607" s="1"/>
@@ -15712,10 +15728,10 @@
     </row>
     <row r="608" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B608" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B608" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="C608" s="1"/>
       <c r="D608" s="1"/>
@@ -15760,7 +15776,7 @@
     </row>
     <row r="611" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B611" s="2" t="s">
         <v>180</v>
@@ -15776,7 +15792,7 @@
     </row>
     <row r="612" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B612" s="2" t="s">
         <v>436</v>
@@ -15792,10 +15808,10 @@
     </row>
     <row r="613" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B613" s="2" t="s">
         <v>1268</v>
-      </c>
-      <c r="B613" s="2" t="s">
-        <v>1269</v>
       </c>
       <c r="C613" s="1"/>
       <c r="D613" s="1" t="s">
@@ -15968,10 +15984,10 @@
     </row>
     <row r="624" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B624" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B624" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C624" s="1"/>
       <c r="D624" s="1"/>
@@ -15984,10 +16000,10 @@
     </row>
     <row r="625" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B625" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="B625" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="C625" s="1"/>
       <c r="D625" s="1"/>
@@ -16016,10 +16032,10 @@
     </row>
     <row r="627" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B627" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B627" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C627" s="1"/>
       <c r="D627" s="1"/>
@@ -16043,7 +16059,7 @@
       </c>
       <c r="E628" s="1"/>
       <c r="F628" s="9" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G628" s="1"/>
       <c r="H628" s="10">
@@ -16052,17 +16068,17 @@
     </row>
     <row r="629" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C629" s="1"/>
       <c r="D629" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E629" s="1" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="F629" s="9"/>
       <c r="G629" s="1"/>
@@ -16072,10 +16088,10 @@
     </row>
     <row r="630" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B630" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B630" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="C630" s="1"/>
       <c r="D630" s="1"/>
@@ -16324,10 +16340,10 @@
     </row>
     <row r="645" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B645" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B645" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="C645" s="1"/>
       <c r="D645" s="2"/>
@@ -16340,10 +16356,10 @@
     </row>
     <row r="646" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B646" s="2" t="s">
         <v>1504</v>
-      </c>
-      <c r="B646" s="2" t="s">
-        <v>1505</v>
       </c>
       <c r="C646" s="1"/>
       <c r="D646" s="2"/>
@@ -16356,10 +16372,10 @@
     </row>
     <row r="647" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B647" s="2" t="s">
         <v>1506</v>
-      </c>
-      <c r="B647" s="2" t="s">
-        <v>1507</v>
       </c>
       <c r="C647" s="1"/>
       <c r="D647" s="2"/>
@@ -16372,7 +16388,7 @@
     </row>
     <row r="648" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B648" s="2" t="s">
         <v>409</v>
@@ -16388,10 +16404,10 @@
     </row>
     <row r="649" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B649" s="2" t="s">
         <v>1502</v>
-      </c>
-      <c r="B649" s="2" t="s">
-        <v>1503</v>
       </c>
       <c r="C649" s="1"/>
       <c r="D649" s="1" t="s">
@@ -16404,10 +16420,10 @@
     </row>
     <row r="650" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B650" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C650" s="6"/>
       <c r="D650" s="6"/>
@@ -16422,10 +16438,10 @@
     </row>
     <row r="651" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="6" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B651" s="7" t="s">
         <v>1524</v>
-      </c>
-      <c r="B651" s="7" t="s">
-        <v>1525</v>
       </c>
       <c r="C651" s="6"/>
       <c r="D651" s="6"/>
@@ -16440,10 +16456,10 @@
     </row>
     <row r="652" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B652" s="7" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="C652" s="6"/>
       <c r="D652" s="6"/>
@@ -16458,10 +16474,10 @@
     </row>
     <row r="653" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A653" s="6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B653" s="7" t="s">
         <v>1527</v>
-      </c>
-      <c r="B653" s="7" t="s">
-        <v>1528</v>
       </c>
       <c r="C653" s="6"/>
       <c r="D653" s="6"/>
@@ -16476,10 +16492,10 @@
     </row>
     <row r="654" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A654" s="6" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B654" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C654" s="6"/>
       <c r="D654" s="6"/>
@@ -16494,10 +16510,10 @@
     </row>
     <row r="655" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A655" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B655" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C655" s="6"/>
       <c r="D655" s="6"/>
@@ -16512,10 +16528,10 @@
     </row>
     <row r="656" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A656" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B656" s="7" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="C656" s="6"/>
       <c r="D656" s="6"/>
@@ -16530,58 +16546,62 @@
     </row>
     <row r="657" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="6" t="s">
-        <v>221</v>
+        <v>1541</v>
       </c>
       <c r="B657" s="7" t="s">
-        <v>222</v>
+        <v>1542</v>
       </c>
       <c r="C657" s="6"/>
       <c r="D657" s="6"/>
-      <c r="E657" s="6"/>
+      <c r="E657" s="7"/>
       <c r="F657" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G657" s="6"/>
-      <c r="H657" s="6"/>
-    </row>
-    <row r="658" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
+      <c r="H657" s="11">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="6" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C658" s="6"/>
+      <c r="D658" s="6"/>
+      <c r="E658" s="7"/>
+      <c r="F658" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G658" s="6"/>
+      <c r="H658" s="11">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C659" s="6"/>
+      <c r="D659" s="6"/>
+      <c r="E659" s="6"/>
+      <c r="F659" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G659" s="6"/>
+      <c r="H659" s="6"/>
+    </row>
+    <row r="660" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B658" s="2" t="s">
+      <c r="B660" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C658" s="1"/>
-      <c r="D658" s="1"/>
-      <c r="E658" s="1"/>
-      <c r="F658" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G658" s="1"/>
-      <c r="H658" s="1"/>
-    </row>
-    <row r="659" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B659" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C659" s="1"/>
-      <c r="D659" s="1"/>
-      <c r="E659" s="1"/>
-      <c r="F659" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G659" s="1"/>
-      <c r="H659" s="1"/>
-    </row>
-    <row r="660" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B660" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -16592,12 +16612,12 @@
       <c r="G660" s="1"/>
       <c r="H660" s="1"/>
     </row>
-    <row r="661" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B661" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C661" s="1"/>
       <c r="D661" s="1"/>
@@ -16610,10 +16630,10 @@
     </row>
     <row r="662" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C662" s="1"/>
       <c r="D662" s="1"/>
@@ -16626,10 +16646,10 @@
     </row>
     <row r="663" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C663" s="1"/>
       <c r="D663" s="1"/>
@@ -16640,12 +16660,12 @@
       <c r="G663" s="1"/>
       <c r="H663" s="1"/>
     </row>
-    <row r="664" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B664" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -16658,10 +16678,10 @@
     </row>
     <row r="665" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>989</v>
+        <v>233</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>990</v>
+        <v>234</v>
       </c>
       <c r="C665" s="1"/>
       <c r="D665" s="1"/>
@@ -16672,12 +16692,12 @@
       <c r="G665" s="1"/>
       <c r="H665" s="1"/>
     </row>
-    <row r="666" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>825</v>
+        <v>235</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>826</v>
+        <v>236</v>
       </c>
       <c r="C666" s="1"/>
       <c r="D666" s="1"/>
@@ -16688,12 +16708,12 @@
       <c r="G666" s="1"/>
       <c r="H666" s="1"/>
     </row>
-    <row r="667" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B667" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C667" s="1"/>
       <c r="D667" s="1"/>
@@ -16704,17 +16724,15 @@
       <c r="G667" s="1"/>
       <c r="H667" s="1"/>
     </row>
-    <row r="668" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>1529</v>
+        <v>824</v>
       </c>
       <c r="B668" s="2" t="s">
-        <v>1530</v>
+        <v>825</v>
       </c>
       <c r="C668" s="1"/>
-      <c r="D668" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D668" s="1"/>
       <c r="E668" s="1"/>
       <c r="F668" s="1" t="s">
         <v>2</v>
@@ -16722,52 +16740,46 @@
       <c r="G668" s="1"/>
       <c r="H668" s="1"/>
     </row>
-    <row r="669" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B669" s="2" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C669" s="1"/>
-      <c r="D669" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E669" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="D669" s="1"/>
+      <c r="E669" s="1"/>
       <c r="F669" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G669" s="1"/>
       <c r="H669" s="1"/>
     </row>
-    <row r="670" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>995</v>
+        <v>1528</v>
       </c>
       <c r="B670" s="2" t="s">
-        <v>996</v>
+        <v>1529</v>
       </c>
       <c r="C670" s="1"/>
       <c r="D670" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E670" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="E670" s="1"/>
       <c r="F670" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G670" s="1"/>
       <c r="H670" s="1"/>
     </row>
-    <row r="671" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>827</v>
+        <v>992</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>438</v>
+        <v>993</v>
       </c>
       <c r="C671" s="1"/>
       <c r="D671" s="1" t="s">
@@ -16784,26 +16796,30 @@
     </row>
     <row r="672" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>828</v>
+        <v>994</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>829</v>
+        <v>995</v>
       </c>
       <c r="C672" s="1"/>
-      <c r="D672" s="1"/>
-      <c r="E672" s="1"/>
+      <c r="D672" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E672" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F672" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G672" s="1"/>
       <c r="H672" s="1"/>
     </row>
-    <row r="673" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>1274</v>
+        <v>826</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>1275</v>
+        <v>438</v>
       </c>
       <c r="C673" s="1"/>
       <c r="D673" s="1" t="s">
@@ -16818,20 +16834,16 @@
       <c r="G673" s="1"/>
       <c r="H673" s="1"/>
     </row>
-    <row r="674" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>997</v>
+        <v>827</v>
       </c>
       <c r="B674" s="2" t="s">
-        <v>998</v>
+        <v>828</v>
       </c>
       <c r="C674" s="1"/>
-      <c r="D674" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E674" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="D674" s="1"/>
+      <c r="E674" s="1"/>
       <c r="F674" s="1" t="s">
         <v>2</v>
       </c>
@@ -16840,42 +16852,50 @@
     </row>
     <row r="675" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>875</v>
+        <v>1273</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>876</v>
+        <v>1274</v>
       </c>
       <c r="C675" s="1"/>
-      <c r="D675" s="1"/>
-      <c r="E675" s="1"/>
+      <c r="D675" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E675" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F675" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G675" s="1"/>
       <c r="H675" s="1"/>
     </row>
     <row r="676" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>879</v>
+        <v>996</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>880</v>
+        <v>997</v>
       </c>
       <c r="C676" s="1"/>
-      <c r="D676" s="1"/>
-      <c r="E676" s="1"/>
+      <c r="D676" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F676" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G676" s="1"/>
       <c r="H676" s="1"/>
     </row>
     <row r="677" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -16886,12 +16906,12 @@
       <c r="G677" s="1"/>
       <c r="H677" s="1"/>
     </row>
-    <row r="678" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C678" s="1"/>
       <c r="D678" s="1"/>
@@ -16904,10 +16924,10 @@
     </row>
     <row r="679" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="C679" s="1"/>
       <c r="D679" s="1"/>
@@ -16918,12 +16938,12 @@
       <c r="G679" s="1"/>
       <c r="H679" s="1"/>
     </row>
-    <row r="680" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>1079</v>
+        <v>880</v>
       </c>
       <c r="B680" s="2" t="s">
-        <v>1080</v>
+        <v>881</v>
       </c>
       <c r="C680" s="1"/>
       <c r="D680" s="1"/>
@@ -16934,12 +16954,12 @@
       <c r="G680" s="1"/>
       <c r="H680" s="1"/>
     </row>
-    <row r="681" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>570</v>
+        <v>882</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>571</v>
+        <v>883</v>
       </c>
       <c r="C681" s="1"/>
       <c r="D681" s="1"/>
@@ -16952,48 +16972,46 @@
     </row>
     <row r="682" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>999</v>
+        <v>1078</v>
       </c>
       <c r="B682" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C682" s="1" t="s">
-        <v>1494</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="C682" s="1"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
       <c r="F682" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G682" s="1"/>
       <c r="H682" s="1"/>
     </row>
-    <row r="683" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>865</v>
+        <v>569</v>
       </c>
       <c r="B683" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C683" s="1" t="s">
-        <v>1494</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="C683" s="1"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
       <c r="F683" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G683" s="1"/>
       <c r="H683" s="1"/>
     </row>
     <row r="684" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C684" s="1"/>
+        <v>999</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>1493</v>
+      </c>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
       <c r="F684" s="1" t="s">
@@ -17004,12 +17022,14 @@
     </row>
     <row r="685" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>1003</v>
+        <v>864</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C685" s="1"/>
+        <v>865</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>1493</v>
+      </c>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
       <c r="F685" s="1" t="s">
@@ -17020,10 +17040,10 @@
     </row>
     <row r="686" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C686" s="1"/>
       <c r="D686" s="1"/>
@@ -17036,14 +17056,12 @@
     </row>
     <row r="687" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C687" s="1" t="s">
-        <v>1494</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="C687" s="1"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
       <c r="F687" s="1" t="s">
@@ -17054,15 +17072,13 @@
     </row>
     <row r="688" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>1081</v>
+        <v>1004</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>1082</v>
+        <v>1005</v>
       </c>
       <c r="C688" s="1"/>
-      <c r="D688" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D688" s="1"/>
       <c r="E688" s="1"/>
       <c r="F688" s="1" t="s">
         <v>2</v>
@@ -17070,17 +17086,17 @@
       <c r="G688" s="1"/>
       <c r="H688" s="1"/>
     </row>
-    <row r="689" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>712</v>
+        <v>1006</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="C689" s="1"/>
-      <c r="D689" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>1007</v>
+      </c>
+      <c r="C689" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D689" s="1"/>
       <c r="E689" s="1"/>
       <c r="F689" s="1" t="s">
         <v>2</v>
@@ -17090,13 +17106,15 @@
     </row>
     <row r="690" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>887</v>
+        <v>1080</v>
       </c>
       <c r="B690" s="2" t="s">
-        <v>888</v>
+        <v>1081</v>
       </c>
       <c r="C690" s="1"/>
-      <c r="D690" s="1"/>
+      <c r="D690" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E690" s="1"/>
       <c r="F690" s="1" t="s">
         <v>2</v>
@@ -17104,17 +17122,17 @@
       <c r="G690" s="1"/>
       <c r="H690" s="1"/>
     </row>
-    <row r="691" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>566</v>
+        <v>711</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C691" s="1" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D691" s="1"/>
+        <v>712</v>
+      </c>
+      <c r="C691" s="1"/>
+      <c r="D691" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E691" s="1"/>
       <c r="F691" s="1" t="s">
         <v>2</v>
@@ -17124,10 +17142,10 @@
     </row>
     <row r="692" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>568</v>
+        <v>886</v>
       </c>
       <c r="B692" s="2" t="s">
-        <v>569</v>
+        <v>887</v>
       </c>
       <c r="C692" s="1"/>
       <c r="D692" s="1"/>
@@ -17138,28 +17156,30 @@
       <c r="G692" s="1"/>
       <c r="H692" s="1"/>
     </row>
-    <row r="693" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>1047</v>
+        <v>565</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C693" s="1"/>
+        <v>566</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>1493</v>
+      </c>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
       <c r="F693" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G693" s="1"/>
       <c r="H693" s="1"/>
     </row>
     <row r="694" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>628</v>
+        <v>567</v>
       </c>
       <c r="B694" s="2" t="s">
-        <v>629</v>
+        <v>568</v>
       </c>
       <c r="C694" s="1"/>
       <c r="D694" s="1"/>
@@ -17170,28 +17190,28 @@
       <c r="G694" s="1"/>
       <c r="H694" s="1"/>
     </row>
-    <row r="695" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>564</v>
+        <v>1046</v>
       </c>
       <c r="B695" s="2" t="s">
-        <v>565</v>
+        <v>1047</v>
       </c>
       <c r="C695" s="1"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
       <c r="F695" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G695" s="1"/>
       <c r="H695" s="1"/>
     </row>
-    <row r="696" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>463</v>
+        <v>627</v>
       </c>
       <c r="B696" s="2" t="s">
-        <v>464</v>
+        <v>628</v>
       </c>
       <c r="C696" s="1"/>
       <c r="D696" s="1"/>
@@ -17202,12 +17222,12 @@
       <c r="G696" s="1"/>
       <c r="H696" s="1"/>
     </row>
-    <row r="697" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>465</v>
+        <v>563</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>466</v>
+        <v>564</v>
       </c>
       <c r="C697" s="1"/>
       <c r="D697" s="1"/>
@@ -17218,12 +17238,12 @@
       <c r="G697" s="1"/>
       <c r="H697" s="1"/>
     </row>
-    <row r="698" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>1009</v>
+        <v>462</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>1010</v>
+        <v>463</v>
       </c>
       <c r="C698" s="1"/>
       <c r="D698" s="1"/>
@@ -17234,12 +17254,12 @@
       <c r="G698" s="1"/>
       <c r="H698" s="1"/>
     </row>
-    <row r="699" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>560</v>
+        <v>464</v>
       </c>
       <c r="B699" s="2" t="s">
-        <v>561</v>
+        <v>465</v>
       </c>
       <c r="C699" s="1"/>
       <c r="D699" s="1"/>
@@ -17250,12 +17270,12 @@
       <c r="G699" s="1"/>
       <c r="H699" s="1"/>
     </row>
-    <row r="700" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B700" s="2" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -17266,12 +17286,12 @@
       <c r="G700" s="1"/>
       <c r="H700" s="1"/>
     </row>
-    <row r="701" spans="1:8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>1015</v>
+        <v>559</v>
       </c>
       <c r="B701" s="2" t="s">
-        <v>1016</v>
+        <v>560</v>
       </c>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -17284,10 +17304,10 @@
     </row>
     <row r="702" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="B702" s="2" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="C702" s="1"/>
       <c r="D702" s="1"/>
@@ -17298,12 +17318,12 @@
       <c r="G702" s="1"/>
       <c r="H702" s="1"/>
     </row>
-    <row r="703" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C703" s="1"/>
       <c r="D703" s="1"/>
@@ -17314,12 +17334,12 @@
       <c r="G703" s="1"/>
       <c r="H703" s="1"/>
     </row>
-    <row r="704" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>791</v>
+        <v>1016</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>792</v>
+        <v>1017</v>
       </c>
       <c r="C704" s="1"/>
       <c r="D704" s="1"/>
@@ -17330,12 +17350,12 @@
       <c r="G704" s="1"/>
       <c r="H704" s="1"/>
     </row>
-    <row r="705" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>793</v>
+        <v>1018</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>794</v>
+        <v>1019</v>
       </c>
       <c r="C705" s="1"/>
       <c r="D705" s="1"/>
@@ -17346,33 +17366,31 @@
       <c r="G705" s="1"/>
       <c r="H705" s="1"/>
     </row>
-    <row r="706" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>572</v>
+        <v>790</v>
       </c>
       <c r="B706" s="2" t="s">
-        <v>573</v>
+        <v>791</v>
       </c>
       <c r="C706" s="1"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
       <c r="F706" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G706" s="1"/>
       <c r="H706" s="1"/>
     </row>
-    <row r="707" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>1053</v>
+        <v>792</v>
       </c>
       <c r="B707" s="2" t="s">
-        <v>1054</v>
+        <v>793</v>
       </c>
       <c r="C707" s="1"/>
-      <c r="D707" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D707" s="1"/>
       <c r="E707" s="1"/>
       <c r="F707" s="1" t="s">
         <v>2</v>
@@ -17380,28 +17398,28 @@
       <c r="G707" s="1"/>
       <c r="H707" s="1"/>
     </row>
-    <row r="708" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>65</v>
+        <v>571</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>66</v>
+        <v>572</v>
       </c>
       <c r="C708" s="1"/>
-      <c r="D708" s="1" t="s">
+      <c r="D708" s="1"/>
+      <c r="E708" s="1"/>
+      <c r="F708" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E708" s="1"/>
-      <c r="F708" s="1"/>
       <c r="G708" s="1"/>
       <c r="H708" s="1"/>
     </row>
     <row r="709" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>1021</v>
+        <v>1052</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>1022</v>
+        <v>1053</v>
       </c>
       <c r="C709" s="1"/>
       <c r="D709" s="1" t="s">
@@ -17414,35 +17432,33 @@
       <c r="G709" s="1"/>
       <c r="H709" s="1"/>
     </row>
-    <row r="710" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>1023</v>
+        <v>65</v>
       </c>
       <c r="B710" s="2" t="s">
-        <v>1024</v>
+        <v>66</v>
       </c>
       <c r="C710" s="1"/>
       <c r="D710" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E710" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F710" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="E710" s="1"/>
+      <c r="F710" s="1"/>
       <c r="G710" s="1"/>
       <c r="H710" s="1"/>
     </row>
     <row r="711" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C711" s="1"/>
-      <c r="D711" s="1"/>
+      <c r="D711" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E711" s="1"/>
       <c r="F711" s="1" t="s">
         <v>2</v>
@@ -17450,12 +17466,12 @@
       <c r="G711" s="1"/>
       <c r="H711" s="1"/>
     </row>
-    <row r="712" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C712" s="1"/>
       <c r="D712" s="1" t="s">
@@ -17472,18 +17488,14 @@
     </row>
     <row r="713" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="B713" s="2" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C713" s="1"/>
-      <c r="D713" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E713" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="D713" s="1"/>
+      <c r="E713" s="1"/>
       <c r="F713" s="1" t="s">
         <v>2</v>
       </c>
@@ -17492,10 +17504,10 @@
     </row>
     <row r="714" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C714" s="1"/>
       <c r="D714" s="1" t="s">
@@ -17512,14 +17524,18 @@
     </row>
     <row r="715" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>754</v>
+        <v>1028</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>755</v>
+        <v>1029</v>
       </c>
       <c r="C715" s="1"/>
-      <c r="D715" s="1"/>
-      <c r="E715" s="1"/>
+      <c r="D715" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F715" s="1" t="s">
         <v>2</v>
       </c>
@@ -17528,10 +17544,10 @@
     </row>
     <row r="716" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B716" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C716" s="1"/>
       <c r="D716" s="1" t="s">
@@ -17548,15 +17564,13 @@
     </row>
     <row r="717" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>1077</v>
+        <v>753</v>
       </c>
       <c r="B717" s="2" t="s">
-        <v>1078</v>
+        <v>754</v>
       </c>
       <c r="C717" s="1"/>
-      <c r="D717" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D717" s="1"/>
       <c r="E717" s="1"/>
       <c r="F717" s="1" t="s">
         <v>2</v>
@@ -17566,29 +17580,35 @@
     </row>
     <row r="718" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>632</v>
+        <v>1032</v>
       </c>
       <c r="B718" s="2" t="s">
-        <v>633</v>
+        <v>1033</v>
       </c>
       <c r="C718" s="1"/>
-      <c r="D718" s="1"/>
-      <c r="E718" s="1"/>
+      <c r="D718" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F718" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G718" s="1"/>
       <c r="H718" s="1"/>
     </row>
-    <row r="719" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>634</v>
+        <v>1076</v>
       </c>
       <c r="B719" s="2" t="s">
-        <v>635</v>
+        <v>1077</v>
       </c>
       <c r="C719" s="1"/>
-      <c r="D719" s="1"/>
+      <c r="D719" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E719" s="1"/>
       <c r="F719" s="1" t="s">
         <v>2</v>
@@ -17598,10 +17618,10 @@
     </row>
     <row r="720" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>1035</v>
+        <v>631</v>
       </c>
       <c r="B720" s="2" t="s">
-        <v>1036</v>
+        <v>632</v>
       </c>
       <c r="C720" s="1"/>
       <c r="D720" s="1"/>
@@ -17612,12 +17632,12 @@
       <c r="G720" s="1"/>
       <c r="H720" s="1"/>
     </row>
-    <row r="721" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>1055</v>
+        <v>633</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1056</v>
+        <v>634</v>
       </c>
       <c r="C721" s="1"/>
       <c r="D721" s="1"/>
@@ -17630,10 +17650,10 @@
     </row>
     <row r="722" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>795</v>
+        <v>1034</v>
       </c>
       <c r="B722" s="2" t="s">
-        <v>796</v>
+        <v>1035</v>
       </c>
       <c r="C722" s="1"/>
       <c r="D722" s="1"/>
@@ -17644,12 +17664,12 @@
       <c r="G722" s="1"/>
       <c r="H722" s="1"/>
     </row>
-    <row r="723" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>797</v>
+        <v>1054</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>798</v>
+        <v>1055</v>
       </c>
       <c r="C723" s="1"/>
       <c r="D723" s="1"/>
@@ -17660,56 +17680,52 @@
       <c r="G723" s="1"/>
       <c r="H723" s="1"/>
     </row>
-    <row r="724" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="C724" s="1"/>
-      <c r="D724" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E724" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="D724" s="1"/>
+      <c r="E724" s="1"/>
       <c r="F724" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G724" s="1"/>
       <c r="H724" s="1"/>
     </row>
-    <row r="725" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="C725" s="1"/>
-      <c r="D725" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E725" s="1" t="s">
-        <v>410</v>
-      </c>
+      <c r="D725" s="1"/>
+      <c r="E725" s="1"/>
       <c r="F725" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G725" s="1"/>
       <c r="H725" s="1"/>
     </row>
-    <row r="726" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>1037</v>
+        <v>806</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>1038</v>
+        <v>807</v>
       </c>
       <c r="C726" s="1"/>
-      <c r="D726" s="1"/>
-      <c r="E726" s="1"/>
+      <c r="D726" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E726" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F726" s="1" t="s">
         <v>2</v>
       </c>
@@ -17718,14 +17734,18 @@
     </row>
     <row r="727" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B727" s="2" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="C727" s="1"/>
-      <c r="D727" s="1"/>
-      <c r="E727" s="1"/>
+      <c r="D727" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E727" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="F727" s="1" t="s">
         <v>2</v>
       </c>
@@ -17734,10 +17754,10 @@
     </row>
     <row r="728" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C728" s="1"/>
       <c r="D728" s="1"/>
@@ -17748,12 +17768,12 @@
       <c r="G728" s="1"/>
       <c r="H728" s="1"/>
     </row>
-    <row r="729" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>903</v>
+        <v>816</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>904</v>
+        <v>817</v>
       </c>
       <c r="C729" s="1"/>
       <c r="D729" s="1"/>
@@ -17766,10 +17786,10 @@
     </row>
     <row r="730" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>799</v>
+        <v>1038</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>800</v>
+        <v>1039</v>
       </c>
       <c r="C730" s="1"/>
       <c r="D730" s="1"/>
@@ -17780,30 +17800,28 @@
       <c r="G730" s="1"/>
       <c r="H730" s="1"/>
     </row>
-    <row r="731" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>441</v>
+        <v>902</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>442</v>
+        <v>903</v>
       </c>
       <c r="C731" s="1"/>
-      <c r="D731" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E731" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F731" s="1"/>
+      <c r="D731" s="1"/>
+      <c r="E731" s="1"/>
+      <c r="F731" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G731" s="1"/>
       <c r="H731" s="1"/>
     </row>
     <row r="732" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>714</v>
+        <v>798</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>715</v>
+        <v>799</v>
       </c>
       <c r="C732" s="1"/>
       <c r="D732" s="1"/>
@@ -17814,28 +17832,30 @@
       <c r="G732" s="1"/>
       <c r="H732" s="1"/>
     </row>
-    <row r="733" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>801</v>
+        <v>441</v>
       </c>
       <c r="B733" s="2" t="s">
-        <v>802</v>
+        <v>442</v>
       </c>
       <c r="C733" s="1"/>
-      <c r="D733" s="1"/>
-      <c r="E733" s="1"/>
-      <c r="F733" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="D733" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E733" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F733" s="1"/>
       <c r="G733" s="1"/>
       <c r="H733" s="1"/>
     </row>
-    <row r="734" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B734" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C734" s="1"/>
       <c r="D734" s="1"/>
@@ -17846,12 +17866,12 @@
       <c r="G734" s="1"/>
       <c r="H734" s="1"/>
     </row>
-    <row r="735" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>1149</v>
+        <v>800</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>1150</v>
+        <v>801</v>
       </c>
       <c r="C735" s="1"/>
       <c r="D735" s="1"/>
@@ -17862,12 +17882,12 @@
       <c r="G735" s="1"/>
       <c r="H735" s="1"/>
     </row>
-    <row r="736" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>578</v>
+        <v>715</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>579</v>
+        <v>716</v>
       </c>
       <c r="C736" s="1"/>
       <c r="D736" s="1"/>
@@ -17880,10 +17900,10 @@
     </row>
     <row r="737" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>580</v>
+        <v>1148</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>581</v>
+        <v>1149</v>
       </c>
       <c r="C737" s="1"/>
       <c r="D737" s="1"/>
@@ -17894,12 +17914,12 @@
       <c r="G737" s="1"/>
       <c r="H737" s="1"/>
     </row>
-    <row r="738" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C738" s="1"/>
       <c r="D738" s="1"/>
@@ -17912,10 +17932,10 @@
     </row>
     <row r="739" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>650</v>
+        <v>579</v>
       </c>
       <c r="B739" s="2" t="s">
-        <v>651</v>
+        <v>580</v>
       </c>
       <c r="C739" s="1"/>
       <c r="D739" s="1"/>
@@ -17926,12 +17946,12 @@
       <c r="G739" s="1"/>
       <c r="H739" s="1"/>
     </row>
-    <row r="740" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>652</v>
+        <v>581</v>
       </c>
       <c r="B740" s="2" t="s">
-        <v>653</v>
+        <v>582</v>
       </c>
       <c r="C740" s="1"/>
       <c r="D740" s="1"/>
@@ -17944,10 +17964,10 @@
     </row>
     <row r="741" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C741" s="1"/>
       <c r="D741" s="1"/>
@@ -17958,12 +17978,12 @@
       <c r="G741" s="1"/>
       <c r="H741" s="1"/>
     </row>
-    <row r="742" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B742" s="2" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C742" s="1"/>
       <c r="D742" s="1"/>
@@ -17976,10 +17996,10 @@
     </row>
     <row r="743" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B743" s="2" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C743" s="1"/>
       <c r="D743" s="1"/>
@@ -17990,12 +18010,12 @@
       <c r="G743" s="1"/>
       <c r="H743" s="1"/>
     </row>
-    <row r="744" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B744" s="2" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C744" s="1"/>
       <c r="D744" s="1"/>
@@ -18006,12 +18026,12 @@
       <c r="G744" s="1"/>
       <c r="H744" s="1"/>
     </row>
-    <row r="745" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B745" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C745" s="1"/>
       <c r="D745" s="1"/>
@@ -18022,12 +18042,12 @@
       <c r="G745" s="1"/>
       <c r="H745" s="1"/>
     </row>
-    <row r="746" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B746" s="2" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C746" s="1"/>
       <c r="D746" s="1"/>
@@ -18038,76 +18058,76 @@
       <c r="G746" s="1"/>
       <c r="H746" s="1"/>
     </row>
-    <row r="747" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B747" s="2" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C747" s="1"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
       <c r="F747" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G747" s="1"/>
       <c r="H747" s="1"/>
     </row>
-    <row r="748" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B748" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C748" s="1"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
       <c r="F748" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G748" s="1"/>
       <c r="H748" s="1"/>
     </row>
-    <row r="749" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B749" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C749" s="1"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
       <c r="F749" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G749" s="1"/>
       <c r="H749" s="1"/>
     </row>
-    <row r="750" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>803</v>
+        <v>667</v>
       </c>
       <c r="B750" s="2" t="s">
-        <v>804</v>
+        <v>668</v>
       </c>
       <c r="C750" s="1"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
       <c r="F750" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G750" s="1"/>
       <c r="H750" s="1"/>
     </row>
-    <row r="751" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>805</v>
+        <v>669</v>
       </c>
       <c r="B751" s="2" t="s">
-        <v>806</v>
+        <v>670</v>
       </c>
       <c r="C751" s="1"/>
       <c r="D751" s="1"/>
@@ -18120,10 +18140,10 @@
     </row>
     <row r="752" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>1295</v>
+        <v>802</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>1296</v>
+        <v>803</v>
       </c>
       <c r="C752" s="1"/>
       <c r="D752" s="1"/>
@@ -18134,56 +18154,88 @@
       <c r="G752" s="1"/>
       <c r="H752" s="1"/>
     </row>
-    <row r="753" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>495</v>
+        <v>804</v>
       </c>
       <c r="B753" s="2" t="s">
-        <v>496</v>
+        <v>805</v>
       </c>
       <c r="C753" s="1"/>
-      <c r="D753" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D753" s="1"/>
       <c r="E753" s="1"/>
-      <c r="F753" s="1"/>
+      <c r="F753" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G753" s="1"/>
       <c r="H753" s="1"/>
     </row>
     <row r="754" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>497</v>
+        <v>1294</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>498</v>
+        <v>1295</v>
       </c>
       <c r="C754" s="1"/>
-      <c r="D754" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="D754" s="1"/>
       <c r="E754" s="1"/>
-      <c r="F754" s="1"/>
+      <c r="F754" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G754" s="1"/>
       <c r="H754" s="1"/>
     </row>
-    <row r="755" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>1125</v>
+        <v>494</v>
       </c>
       <c r="B755" s="2" t="s">
-        <v>1126</v>
+        <v>495</v>
       </c>
       <c r="C755" s="1"/>
-      <c r="D755" s="1"/>
+      <c r="D755" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E755" s="1"/>
-      <c r="F755" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F755" s="1"/>
       <c r="G755" s="1"/>
       <c r="H755" s="1"/>
     </row>
+    <row r="756" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A756" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C756" s="1"/>
+      <c r="D756" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E756" s="1"/>
+      <c r="F756" s="1"/>
+      <c r="G756" s="1"/>
+      <c r="H756" s="1"/>
+    </row>
+    <row r="757" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C757" s="1"/>
+      <c r="D757" s="1"/>
+      <c r="E757" s="1"/>
+      <c r="F757" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G757" s="1"/>
+      <c r="H757" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:G754"/>
+  <autoFilter ref="A2:G756"/>
   <sortState ref="A2:G745">
     <sortCondition ref="A1"/>
   </sortState>
@@ -18332,12 +18384,12 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA711800-6884-4CF0-96CB-DC3DEECF7340}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
